--- a/UU-PCBA-MANT/production_files/UU-TASM-MANT-BRS-AA BOM.xlsx
+++ b/UU-PCBA-MANT/production_files/UU-TASM-MANT-BRS-AA BOM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\git\sklk-hw\UU-PCBA-MANT\production_files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NPHarder\git\sklk-hw\UU-PCBA-MANT\production_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5C6EBBB-FB1A-4355-8804-2D4A5825805D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AAAE765-488E-4365-9E25-FAD451A19A50}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-30170" yWindow="3250" windowWidth="27290" windowHeight="16560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
   <si>
     <t>Line Item</t>
   </si>
@@ -70,6 +70,15 @@
   </si>
   <si>
     <t>UU-PCBA-MANT-CON-AA</t>
+  </si>
+  <si>
+    <t>Supplier</t>
+  </si>
+  <si>
+    <t>Skylark Wireless LLC</t>
+  </si>
+  <si>
+    <t>Mouser</t>
   </si>
 </sst>
 </file>
@@ -150,13 +159,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C79C07AB-CB32-4D03-B0E3-D8047CB10C51}" name="Table1" displayName="Table1" ref="A1:E5" totalsRowShown="0">
-  <autoFilter ref="A1:E5" xr:uid="{96AEAD28-9386-43FB-AA4E-F4D0AD6885A8}"/>
-  <tableColumns count="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C79C07AB-CB32-4D03-B0E3-D8047CB10C51}" name="Table1" displayName="Table1" ref="A1:F5" totalsRowShown="0">
+  <autoFilter ref="A1:F5" xr:uid="{96AEAD28-9386-43FB-AA4E-F4D0AD6885A8}"/>
+  <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{BF7A5C5B-635B-4136-885D-E01A7C116B5F}" name="Line Item"/>
     <tableColumn id="2" xr3:uid="{21E64C99-1039-4879-9D3B-34EECCF31F5A}" name="Part Number" dataDxfId="0"/>
     <tableColumn id="3" xr3:uid="{73586181-B529-4989-B6C0-D37751ABD181}" name="Description"/>
     <tableColumn id="4" xr3:uid="{2837A903-6E6B-482A-95F5-4E8ACC426E45}" name="Manufacturer"/>
+    <tableColumn id="6" xr3:uid="{04851F58-B6BC-4727-8554-21A6F6AE225A}" name="Supplier"/>
     <tableColumn id="5" xr3:uid="{869D353D-1C72-41DB-8E64-A9CDBD056146}" name="Quantity"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -426,10 +436,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -437,11 +447,11 @@
     <col min="1" max="1" width="10.453125" customWidth="1"/>
     <col min="2" max="2" width="24.81640625" customWidth="1"/>
     <col min="3" max="3" width="56.453125" customWidth="1"/>
-    <col min="4" max="4" width="27.08984375" customWidth="1"/>
-    <col min="5" max="5" width="10" customWidth="1"/>
+    <col min="4" max="5" width="27.08984375" customWidth="1"/>
+    <col min="6" max="6" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -455,10 +465,13 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -471,11 +484,14 @@
       <c r="D2" t="s">
         <v>4</v>
       </c>
-      <c r="E2">
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -488,11 +504,14 @@
       <c r="D3" t="s">
         <v>4</v>
       </c>
-      <c r="E3">
+      <c r="E3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -505,11 +524,14 @@
       <c r="D4" t="s">
         <v>5</v>
       </c>
-      <c r="E4">
+      <c r="E4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -522,7 +544,10 @@
       <c r="D5" t="s">
         <v>9</v>
       </c>
-      <c r="E5">
+      <c r="E5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5">
         <v>3</v>
       </c>
     </row>
